--- a/Resource/文档/设计文档HYZ/HYZ.xlsx
+++ b/Resource/文档/设计文档HYZ/HYZ.xlsx
@@ -516,7 +516,7 @@
     <author>h5nc</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="H4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="0">
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -561,30 +561,6 @@
           </rPr>
           <t xml:space="preserve">
 1:17.5-0.75*rank</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>h5nc:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1:25-0.75*rank</t>
         </r>
       </text>
     </comment>
@@ -612,7 +588,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="H10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>h5nc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1:25-0.75*rank</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -651,7 +651,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="155">
   <si>
     <t>Charge</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1267,6 +1267,9 @@
   <si>
     <t>32~96(5f)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wikiwiki.jp/let/?etc%2F%C3%CE%BC%B1%2F%B2%D6%B2%F2%C0%CF%A5%E1%A5%E2</t>
   </si>
 </sst>
 </file>
@@ -1539,13 +1542,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2633,11 +2636,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2653,216 +2654,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="E4" s="1">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="D5" s="1">
-        <v>2.2000000000000002</v>
+        <v>3.6</v>
       </c>
       <c r="E5" s="1">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" s="1">
-        <v>17.5</v>
+        <v>144</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="D6" s="1">
-        <v>3.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
+      </c>
+      <c r="H6" s="1">
+        <v>17.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="C7" s="1">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D7" s="1">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="E7" s="1">
         <v>60</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="1">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="C8" s="1">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="D8" s="1">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="E8" s="1">
         <v>60</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="1">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="E9" s="1">
-        <v>40</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>107</v>
@@ -2870,88 +2850,91 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="C10" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="E10" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="C11" s="1">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E11" s="1">
         <v>60</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
         <v>60</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" s="1">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -2960,104 +2943,127 @@
         <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C14" s="1">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D14" s="1">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1">
         <v>60</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="D15" s="1">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="E15" s="1">
         <v>60</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1">
-        <v>4.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="D16" s="1">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="E16" s="1">
         <v>60</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="G16" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C17" s="1">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E17" s="1">
         <v>60</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>60</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>128</v>
       </c>
     </row>

--- a/Resource/文档/设计文档HYZ/HYZ.xlsx
+++ b/Resource/文档/设计文档HYZ/HYZ.xlsx
@@ -2636,9 +2636,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3021,7 +3023,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
         <v>120</v>
       </c>
@@ -3044,7 +3046,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
@@ -3065,6 +3067,1451 @@
       </c>
       <c r="H18" s="1" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
+      <c r="K20" s="1">
+        <v>9</v>
+      </c>
+      <c r="L20" s="1">
+        <v>10</v>
+      </c>
+      <c r="M20" s="1">
+        <v>11</v>
+      </c>
+      <c r="N20" s="1">
+        <v>12</v>
+      </c>
+      <c r="O20" s="1">
+        <v>13</v>
+      </c>
+      <c r="P20" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>15</v>
+      </c>
+      <c r="R20" s="1">
+        <v>16</v>
+      </c>
+      <c r="S20" s="1">
+        <v>17</v>
+      </c>
+      <c r="T20" s="1">
+        <v>18</v>
+      </c>
+      <c r="U20" s="1">
+        <v>19</v>
+      </c>
+      <c r="V20" s="1">
+        <v>20</v>
+      </c>
+      <c r="W20" s="1">
+        <v>21</v>
+      </c>
+      <c r="X20" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="H21" s="1">
+        <v>35</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-1.25</v>
+      </c>
+      <c r="J21" s="1">
+        <f>$H21+$I21*J$20</f>
+        <v>25</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" ref="K21:X21" si="0">$H21+$I21*K$20</f>
+        <v>23.75</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="0"/>
+        <v>21.25</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W21" s="1">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="X21" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="H22" s="1">
+        <v>30</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" ref="J22:X37" si="1">$H22+$I22*J$20</f>
+        <v>22</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="X22" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="H23" s="1">
+        <v>22.5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="1"/>
+        <v>16.5</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="X23" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="H24" s="1">
+        <v>35</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-1.25</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>23.75</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="1"/>
+        <v>13.75</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="H25" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-0.25</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="H26" s="1">
+        <v>35</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-1.25</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="1"/>
+        <v>23.75</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="1"/>
+        <v>13.75</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="H27" s="1">
+        <v>35</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-1.25</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="1"/>
+        <v>23.75</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S27" s="1">
+        <f t="shared" si="1"/>
+        <v>13.75</v>
+      </c>
+      <c r="T27" s="1">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="U27" s="1">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
+      <c r="V27" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="W27" s="1">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="X27" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="H28" s="1">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>13.25</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="1"/>
+        <v>11.75</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="1"/>
+        <v>10.25</v>
+      </c>
+      <c r="P28" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S28" s="1">
+        <f t="shared" si="1"/>
+        <v>7.25</v>
+      </c>
+      <c r="T28" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="U28" s="1">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="V28" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W28" s="1">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+      <c r="X28" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="H29" s="1">
+        <v>50</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>43.25</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="1"/>
+        <v>41.75</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="1"/>
+        <v>40.25</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="1"/>
+        <v>39.5</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="1"/>
+        <v>38.75</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="1"/>
+        <v>37.25</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="1"/>
+        <v>36.5</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="1"/>
+        <v>35.75</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="1"/>
+        <v>34.25</v>
+      </c>
+      <c r="X29" s="1">
+        <f t="shared" si="1"/>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="H30" s="1">
+        <v>25</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-0.75</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="1"/>
+        <v>18.25</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" si="1"/>
+        <v>16.75</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="1"/>
+        <v>15.25</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" si="1"/>
+        <v>14.5</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="1"/>
+        <v>13.75</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="1"/>
+        <v>12.25</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+      <c r="U30" s="1">
+        <f t="shared" si="1"/>
+        <v>10.75</v>
+      </c>
+      <c r="V30" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="W30" s="1">
+        <f t="shared" si="1"/>
+        <v>9.25</v>
+      </c>
+      <c r="X30" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="H31" s="1">
+        <v>25</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U31" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V31" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W31" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X31" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="H32" s="1">
+        <v>35</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-1.25</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="1"/>
+        <v>23.75</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" si="1"/>
+        <v>13.75</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="U32" s="1">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
+      <c r="V32" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="W32" s="1">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="X32" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="33" spans="8:24">
+      <c r="H33" s="1">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U33" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="V33" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W33" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="X33" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="8:24">
+      <c r="H34" s="1">
+        <v>40</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="U34" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="V34" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="W34" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="X34" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="8:24">
+      <c r="H35" s="1">
+        <v>35</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-1.25</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="1"/>
+        <v>23.75</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="1"/>
+        <v>18.75</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" si="1"/>
+        <v>13.75</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="U35" s="1">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
+      <c r="V35" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="W35" s="1">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="X35" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="36" spans="8:24">
+      <c r="H36" s="1">
+        <v>8</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="1"/>
+        <v>6.2</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U36" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="V36" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W36" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="X36" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="8:24">
+      <c r="J37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:24">
+      <c r="J38" s="1">
+        <f t="shared" ref="J38:X41" si="2">$H38+$I38*J$20</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="8:24">
+      <c r="J39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:24">
+      <c r="J40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="8:24">
+      <c r="J41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
